--- a/scripts/Recruitment/All Recruitment Dates.xlsx
+++ b/scripts/Recruitment/All Recruitment Dates.xlsx
@@ -1,724 +1,689 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Bangladesh\Haseeb\Summer '25\4-wave-scripts\wave-scripts\scripts\Recruitment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FF711D-E7B8-40D1-8049-A42BB44AB60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="22290" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="All Recruitment Dates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="All Recruitment Dates" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
-  <si>
-    <t xml:space="preserve">Recruitment Date (YYYYMMDD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20231226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20240229</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+  <si>
+    <t>Recruitment Date (YYYYMMDD)</t>
+  </si>
+  <si>
+    <t>20230311</t>
+  </si>
+  <si>
+    <t>20230312</t>
+  </si>
+  <si>
+    <t>20230313</t>
+  </si>
+  <si>
+    <t>20230314</t>
+  </si>
+  <si>
+    <t>20230315</t>
+  </si>
+  <si>
+    <t>20230316</t>
+  </si>
+  <si>
+    <t>20230318</t>
+  </si>
+  <si>
+    <t>20230319</t>
+  </si>
+  <si>
+    <t>20230321</t>
+  </si>
+  <si>
+    <t>20230322</t>
+  </si>
+  <si>
+    <t>20230323</t>
+  </si>
+  <si>
+    <t>20230429</t>
+  </si>
+  <si>
+    <t>20230430</t>
+  </si>
+  <si>
+    <t>20230502</t>
+  </si>
+  <si>
+    <t>20230503</t>
+  </si>
+  <si>
+    <t>20230504</t>
+  </si>
+  <si>
+    <t>20230507</t>
+  </si>
+  <si>
+    <t>20230508</t>
+  </si>
+  <si>
+    <t>20230509</t>
+  </si>
+  <si>
+    <t>20230510</t>
+  </si>
+  <si>
+    <t>20230511</t>
+  </si>
+  <si>
+    <t>20230513</t>
+  </si>
+  <si>
+    <t>20230515</t>
+  </si>
+  <si>
+    <t>20230516</t>
+  </si>
+  <si>
+    <t>20230520</t>
+  </si>
+  <si>
+    <t>20230522</t>
+  </si>
+  <si>
+    <t>20230525</t>
+  </si>
+  <si>
+    <t>20230527</t>
+  </si>
+  <si>
+    <t>20230528</t>
+  </si>
+  <si>
+    <t>20230529</t>
+  </si>
+  <si>
+    <t>20230530</t>
+  </si>
+  <si>
+    <t>20230531</t>
+  </si>
+  <si>
+    <t>20230601</t>
+  </si>
+  <si>
+    <t>20230605</t>
+  </si>
+  <si>
+    <t>20230606</t>
+  </si>
+  <si>
+    <t>20230607</t>
+  </si>
+  <si>
+    <t>20230608</t>
+  </si>
+  <si>
+    <t>20230613</t>
+  </si>
+  <si>
+    <t>20230615</t>
+  </si>
+  <si>
+    <t>20230621</t>
+  </si>
+  <si>
+    <t>20230622</t>
+  </si>
+  <si>
+    <t>20230712</t>
+  </si>
+  <si>
+    <t>20230713</t>
+  </si>
+  <si>
+    <t>20230715</t>
+  </si>
+  <si>
+    <t>20230716</t>
+  </si>
+  <si>
+    <t>20230717</t>
+  </si>
+  <si>
+    <t>20230718</t>
+  </si>
+  <si>
+    <t>20230719</t>
+  </si>
+  <si>
+    <t>20230720</t>
+  </si>
+  <si>
+    <t>20230723</t>
+  </si>
+  <si>
+    <t>20230724</t>
+  </si>
+  <si>
+    <t>20230725</t>
+  </si>
+  <si>
+    <t>20230726</t>
+  </si>
+  <si>
+    <t>20230727</t>
+  </si>
+  <si>
+    <t>20230730</t>
+  </si>
+  <si>
+    <t>20230731</t>
+  </si>
+  <si>
+    <t>20230801</t>
+  </si>
+  <si>
+    <t>20230802</t>
+  </si>
+  <si>
+    <t>20230803</t>
+  </si>
+  <si>
+    <t>20230805</t>
+  </si>
+  <si>
+    <t>20230806</t>
+  </si>
+  <si>
+    <t>20230807</t>
+  </si>
+  <si>
+    <t>20230808</t>
+  </si>
+  <si>
+    <t>20230809</t>
+  </si>
+  <si>
+    <t>20230810</t>
+  </si>
+  <si>
+    <t>20230812</t>
+  </si>
+  <si>
+    <t>20230813</t>
+  </si>
+  <si>
+    <t>20230814</t>
+  </si>
+  <si>
+    <t>20230817</t>
+  </si>
+  <si>
+    <t>20230819</t>
+  </si>
+  <si>
+    <t>20230821</t>
+  </si>
+  <si>
+    <t>20230822</t>
+  </si>
+  <si>
+    <t>20230823</t>
+  </si>
+  <si>
+    <t>20230824</t>
+  </si>
+  <si>
+    <t>20230826</t>
+  </si>
+  <si>
+    <t>20230827</t>
+  </si>
+  <si>
+    <t>20230828</t>
+  </si>
+  <si>
+    <t>20230829</t>
+  </si>
+  <si>
+    <t>20230830</t>
+  </si>
+  <si>
+    <t>20230831</t>
+  </si>
+  <si>
+    <t>20230902</t>
+  </si>
+  <si>
+    <t>20230903</t>
+  </si>
+  <si>
+    <t>20230904</t>
+  </si>
+  <si>
+    <t>20230905</t>
+  </si>
+  <si>
+    <t>20230907</t>
+  </si>
+  <si>
+    <t>20230909</t>
+  </si>
+  <si>
+    <t>20230910</t>
+  </si>
+  <si>
+    <t>20230911</t>
+  </si>
+  <si>
+    <t>20230913</t>
+  </si>
+  <si>
+    <t>20230914</t>
+  </si>
+  <si>
+    <t>20230916</t>
+  </si>
+  <si>
+    <t>20230917</t>
+  </si>
+  <si>
+    <t>20230918</t>
+  </si>
+  <si>
+    <t>20230919</t>
+  </si>
+  <si>
+    <t>20230920</t>
+  </si>
+  <si>
+    <t>20230921</t>
+  </si>
+  <si>
+    <t>20230923</t>
+  </si>
+  <si>
+    <t>20230924</t>
+  </si>
+  <si>
+    <t>20230925</t>
+  </si>
+  <si>
+    <t>20230926</t>
+  </si>
+  <si>
+    <t>20230927</t>
+  </si>
+  <si>
+    <t>20230930</t>
+  </si>
+  <si>
+    <t>20231001</t>
+  </si>
+  <si>
+    <t>20231002</t>
+  </si>
+  <si>
+    <t>20231003</t>
+  </si>
+  <si>
+    <t>20231004</t>
+  </si>
+  <si>
+    <t>20231005</t>
+  </si>
+  <si>
+    <t>20231007</t>
+  </si>
+  <si>
+    <t>20231008</t>
+  </si>
+  <si>
+    <t>20231009</t>
+  </si>
+  <si>
+    <t>20231010</t>
+  </si>
+  <si>
+    <t>20231011</t>
+  </si>
+  <si>
+    <t>20231012</t>
+  </si>
+  <si>
+    <t>20231014</t>
+  </si>
+  <si>
+    <t>20231015</t>
+  </si>
+  <si>
+    <t>20231016</t>
+  </si>
+  <si>
+    <t>20231017</t>
+  </si>
+  <si>
+    <t>20231018</t>
+  </si>
+  <si>
+    <t>20231019</t>
+  </si>
+  <si>
+    <t>20231021</t>
+  </si>
+  <si>
+    <t>20231022</t>
+  </si>
+  <si>
+    <t>20231023</t>
+  </si>
+  <si>
+    <t>20231025</t>
+  </si>
+  <si>
+    <t>20231026</t>
+  </si>
+  <si>
+    <t>20231028</t>
+  </si>
+  <si>
+    <t>20231029</t>
+  </si>
+  <si>
+    <t>20231030</t>
+  </si>
+  <si>
+    <t>20231031</t>
+  </si>
+  <si>
+    <t>20231101</t>
+  </si>
+  <si>
+    <t>20231102</t>
+  </si>
+  <si>
+    <t>20231104</t>
+  </si>
+  <si>
+    <t>20231105</t>
+  </si>
+  <si>
+    <t>20231106</t>
+  </si>
+  <si>
+    <t>20231107</t>
+  </si>
+  <si>
+    <t>20231108</t>
+  </si>
+  <si>
+    <t>20231109</t>
+  </si>
+  <si>
+    <t>20231111</t>
+  </si>
+  <si>
+    <t>20231112</t>
+  </si>
+  <si>
+    <t>20231113</t>
+  </si>
+  <si>
+    <t>20231114</t>
+  </si>
+  <si>
+    <t>20231115</t>
+  </si>
+  <si>
+    <t>20231116</t>
+  </si>
+  <si>
+    <t>20231118</t>
+  </si>
+  <si>
+    <t>20231119</t>
+  </si>
+  <si>
+    <t>20231120</t>
+  </si>
+  <si>
+    <t>20231121</t>
+  </si>
+  <si>
+    <t>20231122</t>
+  </si>
+  <si>
+    <t>20231123</t>
+  </si>
+  <si>
+    <t>20231125</t>
+  </si>
+  <si>
+    <t>20231126</t>
+  </si>
+  <si>
+    <t>20231127</t>
+  </si>
+  <si>
+    <t>20231128</t>
+  </si>
+  <si>
+    <t>20231129</t>
+  </si>
+  <si>
+    <t>20231130</t>
+  </si>
+  <si>
+    <t>20231202</t>
+  </si>
+  <si>
+    <t>20231203</t>
+  </si>
+  <si>
+    <t>20231204</t>
+  </si>
+  <si>
+    <t>20231205</t>
+  </si>
+  <si>
+    <t>20231206</t>
+  </si>
+  <si>
+    <t>20231207</t>
+  </si>
+  <si>
+    <t>20231209</t>
+  </si>
+  <si>
+    <t>20231210</t>
+  </si>
+  <si>
+    <t>20231211</t>
+  </si>
+  <si>
+    <t>20231212</t>
+  </si>
+  <si>
+    <t>20231213</t>
+  </si>
+  <si>
+    <t>20231214</t>
+  </si>
+  <si>
+    <t>20231217</t>
+  </si>
+  <si>
+    <t>20231218</t>
+  </si>
+  <si>
+    <t>20231219</t>
+  </si>
+  <si>
+    <t>20231220</t>
+  </si>
+  <si>
+    <t>20231221</t>
+  </si>
+  <si>
+    <t>20231223</t>
+  </si>
+  <si>
+    <t>20231224</t>
+  </si>
+  <si>
+    <t>20231226</t>
+  </si>
+  <si>
+    <t>20240102</t>
+  </si>
+  <si>
+    <t>20240103</t>
+  </si>
+  <si>
+    <t>20240104</t>
+  </si>
+  <si>
+    <t>20240108</t>
+  </si>
+  <si>
+    <t>20240109</t>
+  </si>
+  <si>
+    <t>20240110</t>
+  </si>
+  <si>
+    <t>20240111</t>
+  </si>
+  <si>
+    <t>20240113</t>
+  </si>
+  <si>
+    <t>20240114</t>
+  </si>
+  <si>
+    <t>20240115</t>
+  </si>
+  <si>
+    <t>20240116</t>
+  </si>
+  <si>
+    <t>20240117</t>
+  </si>
+  <si>
+    <t>20240118</t>
+  </si>
+  <si>
+    <t>20240120</t>
+  </si>
+  <si>
+    <t>20240121</t>
+  </si>
+  <si>
+    <t>20240122</t>
+  </si>
+  <si>
+    <t>20240123</t>
+  </si>
+  <si>
+    <t>20240124</t>
+  </si>
+  <si>
+    <t>20240125</t>
+  </si>
+  <si>
+    <t>20240127</t>
+  </si>
+  <si>
+    <t>20240128</t>
+  </si>
+  <si>
+    <t>20240129</t>
+  </si>
+  <si>
+    <t>20240130</t>
+  </si>
+  <si>
+    <t>20240131</t>
+  </si>
+  <si>
+    <t>20240201</t>
+  </si>
+  <si>
+    <t>20240203</t>
+  </si>
+  <si>
+    <t>20240204</t>
+  </si>
+  <si>
+    <t>20240205</t>
+  </si>
+  <si>
+    <t>20240206</t>
+  </si>
+  <si>
+    <t>20240207</t>
+  </si>
+  <si>
+    <t>20240208</t>
+  </si>
+  <si>
+    <t>20240210</t>
+  </si>
+  <si>
+    <t>20240211</t>
+  </si>
+  <si>
+    <t>20240212</t>
+  </si>
+  <si>
+    <t>20240213</t>
+  </si>
+  <si>
+    <t>20240214</t>
+  </si>
+  <si>
+    <t>20240215</t>
+  </si>
+  <si>
+    <t>20240218</t>
+  </si>
+  <si>
+    <t>20240219</t>
+  </si>
+  <si>
+    <t>20240220</t>
+  </si>
+  <si>
+    <t>20240222</t>
+  </si>
+  <si>
+    <t>20240227</t>
+  </si>
+  <si>
+    <t>20240228</t>
+  </si>
+  <si>
+    <t>20240229</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -754,6 +719,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1035,1180 +1009,1112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A219"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>232</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>